--- a/reporte.xlsx
+++ b/reporte.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>NO DE CUENTA</t>
   </si>
@@ -20,34 +20,10 @@
     <t>SALDO ACTUAL</t>
   </si>
   <si>
-    <t>481040405</t>
+    <t>63124756</t>
   </si>
   <si>
-    <t>198000.0</t>
-  </si>
-  <si>
-    <t>718497537</t>
-  </si>
-  <si>
-    <t>76000.0</t>
-  </si>
-  <si>
-    <t>206991367</t>
-  </si>
-  <si>
-    <t>417000.0</t>
-  </si>
-  <si>
-    <t>168087725</t>
-  </si>
-  <si>
-    <t>53000.0</t>
-  </si>
-  <si>
-    <t>829834435</t>
-  </si>
-  <si>
-    <t>80000.0</t>
+    <t>25800.0</t>
   </si>
 </sst>
 </file>
@@ -92,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -118,38 +94,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
